--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam15-Itgav.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam15-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H2">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I2">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J2">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q2">
-        <v>1165.224391537145</v>
+        <v>1268.547151799515</v>
       </c>
       <c r="R2">
-        <v>1165.224391537145</v>
+        <v>11416.92436619564</v>
       </c>
       <c r="S2">
-        <v>0.02575520225636984</v>
+        <v>0.02713354764682865</v>
       </c>
       <c r="T2">
-        <v>0.02575520225636984</v>
+        <v>0.02713354764682864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H3">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I3">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J3">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q3">
-        <v>5649.836828888834</v>
+        <v>5703.092758280273</v>
       </c>
       <c r="R3">
-        <v>5649.836828888834</v>
+        <v>51327.83482452246</v>
       </c>
       <c r="S3">
-        <v>0.1248795436315585</v>
+        <v>0.1219861152749154</v>
       </c>
       <c r="T3">
-        <v>0.1248795436315585</v>
+        <v>0.1219861152749154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H4">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I4">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J4">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N4">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q4">
-        <v>6253.402256715622</v>
+        <v>6297.094342637669</v>
       </c>
       <c r="R4">
-        <v>6253.402256715622</v>
+        <v>56673.84908373902</v>
       </c>
       <c r="S4">
-        <v>0.1382202784990501</v>
+        <v>0.1346914926576871</v>
       </c>
       <c r="T4">
-        <v>0.1382202784990501</v>
+        <v>0.1346914926576871</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H5">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I5">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J5">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N5">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q5">
-        <v>5384.304271559615</v>
+        <v>5609.594338680863</v>
       </c>
       <c r="R5">
-        <v>5384.304271559615</v>
+        <v>50486.34904812776</v>
       </c>
       <c r="S5">
-        <v>0.1190104211094634</v>
+        <v>0.1199862338991975</v>
       </c>
       <c r="T5">
-        <v>0.1190104211094634</v>
+        <v>0.1199862338991975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H6">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I6">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J6">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N6">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q6">
-        <v>907.4987363419783</v>
+        <v>1004.361407739387</v>
       </c>
       <c r="R6">
-        <v>907.4987363419783</v>
+        <v>9039.252669654483</v>
       </c>
       <c r="S6">
-        <v>0.02005863735057473</v>
+        <v>0.02148275534959344</v>
       </c>
       <c r="T6">
-        <v>0.02005863735057473</v>
+        <v>0.02148275534959343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H7">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I7">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J7">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N7">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q7">
-        <v>239.0832929614582</v>
+        <v>270.129120829225</v>
       </c>
       <c r="R7">
-        <v>239.0832929614582</v>
+        <v>2431.162087463025</v>
       </c>
       <c r="S7">
-        <v>0.005284508813120726</v>
+        <v>0.005777917959469034</v>
       </c>
       <c r="T7">
-        <v>0.005284508813120726</v>
+        <v>0.005777917959469032</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H8">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I8">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J8">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q8">
-        <v>1159.245895946047</v>
+        <v>1214.437658557958</v>
       </c>
       <c r="R8">
-        <v>1159.245895946047</v>
+        <v>10929.93892702162</v>
       </c>
       <c r="S8">
-        <v>0.02562305829829972</v>
+        <v>0.02597617441798743</v>
       </c>
       <c r="T8">
-        <v>0.02562305829829972</v>
+        <v>0.02597617441798742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H9">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I9">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J9">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N9">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q9">
-        <v>1283.08677247641</v>
+        <v>1340.926552191917</v>
       </c>
       <c r="R9">
-        <v>1283.08677247641</v>
+        <v>12068.33896972725</v>
       </c>
       <c r="S9">
-        <v>0.02836033949993853</v>
+        <v>0.02868170445472513</v>
       </c>
       <c r="T9">
-        <v>0.02836033949993853</v>
+        <v>0.02868170445472513</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H10">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I10">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J10">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N10">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q10">
-        <v>1104.763344211098</v>
+        <v>1194.527759387492</v>
       </c>
       <c r="R10">
-        <v>1104.763344211098</v>
+        <v>10750.74983448742</v>
       </c>
       <c r="S10">
-        <v>0.02441881888349855</v>
+        <v>0.02555031228348256</v>
       </c>
       <c r="T10">
-        <v>0.02441881888349855</v>
+        <v>0.02555031228348256</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H11">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I11">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J11">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N11">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q11">
-        <v>186.2025785066016</v>
+        <v>213.8724316889417</v>
       </c>
       <c r="R11">
-        <v>186.2025785066016</v>
+        <v>1924.851885200475</v>
       </c>
       <c r="S11">
-        <v>0.004115675148001935</v>
+        <v>0.004574617354461686</v>
       </c>
       <c r="T11">
-        <v>0.004115675148001935</v>
+        <v>0.004574617354461684</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H12">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I12">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J12">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N12">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q12">
-        <v>730.1392863675557</v>
+        <v>794.3773831167259</v>
       </c>
       <c r="R12">
-        <v>730.1392863675557</v>
+        <v>7149.396448050534</v>
       </c>
       <c r="S12">
-        <v>0.01613842375107754</v>
+        <v>0.01699130895038834</v>
       </c>
       <c r="T12">
-        <v>0.01613842375107754</v>
+        <v>0.01699130895038834</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H13">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I13">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J13">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q13">
-        <v>3540.234705262368</v>
+        <v>3571.335834515856</v>
       </c>
       <c r="R13">
-        <v>3540.234705262368</v>
+        <v>32142.02251064271</v>
       </c>
       <c r="S13">
-        <v>0.07825055974735447</v>
+        <v>0.07638897055675024</v>
       </c>
       <c r="T13">
-        <v>0.07825055974735447</v>
+        <v>0.07638897055675023</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H14">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I14">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J14">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N14">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q14">
-        <v>3918.43381776827</v>
+        <v>3943.305787291873</v>
       </c>
       <c r="R14">
-        <v>3918.43381776827</v>
+        <v>35489.75208562686</v>
       </c>
       <c r="S14">
-        <v>0.08660997507243144</v>
+        <v>0.08434520964689309</v>
       </c>
       <c r="T14">
-        <v>0.08660997507243144</v>
+        <v>0.08434520964689307</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H15">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I15">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J15">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N15">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q15">
-        <v>3373.849798351905</v>
+        <v>3512.786154449515</v>
       </c>
       <c r="R15">
-        <v>3373.849798351905</v>
+        <v>31615.07539004564</v>
       </c>
       <c r="S15">
-        <v>0.07457291880453729</v>
+        <v>0.07513662409762729</v>
       </c>
       <c r="T15">
-        <v>0.07457291880453729</v>
+        <v>0.07513662409762727</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H16">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I16">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J16">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N16">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q16">
-        <v>568.6462492070722</v>
+        <v>628.9415301998474</v>
       </c>
       <c r="R16">
-        <v>568.6462492070722</v>
+        <v>5660.473771798626</v>
       </c>
       <c r="S16">
-        <v>0.01256890884453079</v>
+        <v>0.01345272420700996</v>
       </c>
       <c r="T16">
-        <v>0.01256890884453079</v>
+        <v>0.01345272420700996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H17">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I17">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J17">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N17">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q17">
-        <v>569.7860042965881</v>
+        <v>628.7266818474845</v>
       </c>
       <c r="R17">
-        <v>569.7860042965881</v>
+        <v>5658.540136627362</v>
       </c>
       <c r="S17">
-        <v>0.0125941010933941</v>
+        <v>0.0134481287152323</v>
       </c>
       <c r="T17">
-        <v>0.0125941010933941</v>
+        <v>0.01344812871523229</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H18">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I18">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J18">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q18">
-        <v>2762.727913216407</v>
+        <v>2826.608834441392</v>
       </c>
       <c r="R18">
-        <v>2762.727913216407</v>
+        <v>25439.47950997253</v>
       </c>
       <c r="S18">
-        <v>0.06106516195592258</v>
+        <v>0.06045965684402368</v>
       </c>
       <c r="T18">
-        <v>0.06106516195592258</v>
+        <v>0.06045965684402366</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H19">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I19">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J19">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N19">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q19">
-        <v>3057.866888979963</v>
+        <v>3121.012274325664</v>
       </c>
       <c r="R19">
-        <v>3057.866888979963</v>
+        <v>28089.11046893098</v>
       </c>
       <c r="S19">
-        <v>0.06758868143400408</v>
+        <v>0.06675678955379988</v>
       </c>
       <c r="T19">
-        <v>0.06758868143400408</v>
+        <v>0.06675678955379986</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H20">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I20">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J20">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N20">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q20">
-        <v>2632.884480526432</v>
+        <v>2780.26845913147</v>
       </c>
       <c r="R20">
-        <v>2632.884480526432</v>
+        <v>25022.41613218323</v>
       </c>
       <c r="S20">
-        <v>0.05819520498035661</v>
+        <v>0.05946846090805866</v>
       </c>
       <c r="T20">
-        <v>0.05819520498035661</v>
+        <v>0.05946846090805864</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H21">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I21">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J21">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N21">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q21">
-        <v>443.7600883057168</v>
+        <v>497.7889977269464</v>
       </c>
       <c r="R21">
-        <v>443.7600883057168</v>
+        <v>4480.100979542518</v>
       </c>
       <c r="S21">
-        <v>0.009808523500388753</v>
+        <v>0.0106474414204714</v>
       </c>
       <c r="T21">
-        <v>0.009808523500388753</v>
+        <v>0.0106474414204714</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H22">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I22">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J22">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N22">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q22">
-        <v>18.73691189012703</v>
+        <v>21.07030151201666</v>
       </c>
       <c r="R22">
-        <v>18.73691189012703</v>
+        <v>189.63271360815</v>
       </c>
       <c r="S22">
-        <v>0.0004141459438155083</v>
+        <v>0.0004506825222841264</v>
       </c>
       <c r="T22">
-        <v>0.0004141459438155083</v>
+        <v>0.0004506825222841262</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H23">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I23">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J23">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q23">
-        <v>90.84987889485845</v>
+        <v>94.72717178663888</v>
       </c>
       <c r="R23">
-        <v>90.84987889485845</v>
+        <v>852.5445460797499</v>
       </c>
       <c r="S23">
-        <v>0.00200807417257811</v>
+        <v>0.002026163730276779</v>
       </c>
       <c r="T23">
-        <v>0.00200807417257811</v>
+        <v>0.002026163730276778</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H24">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I24">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J24">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N24">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q24">
-        <v>100.5552646757025</v>
+        <v>104.5934132292778</v>
       </c>
       <c r="R24">
-        <v>100.5552646757025</v>
+        <v>941.3407190635</v>
       </c>
       <c r="S24">
-        <v>0.002222594376220592</v>
+        <v>0.002237197377626189</v>
       </c>
       <c r="T24">
-        <v>0.002222594376220592</v>
+        <v>0.002237197377626189</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H25">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I25">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J25">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N25">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q25">
-        <v>86.58009174761686</v>
+        <v>93.17418269272777</v>
       </c>
       <c r="R25">
-        <v>86.58009174761686</v>
+        <v>838.56764423455</v>
       </c>
       <c r="S25">
-        <v>0.001913698160225858</v>
+        <v>0.001992946121049667</v>
       </c>
       <c r="T25">
-        <v>0.001913698160225858</v>
+        <v>0.001992946121049666</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H26">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I26">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J26">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N26">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q26">
-        <v>14.59266042380921</v>
+        <v>16.68223184142778</v>
       </c>
       <c r="R26">
-        <v>14.59266042380921</v>
+        <v>150.14008657285</v>
       </c>
       <c r="S26">
-        <v>0.0003225446732864317</v>
+        <v>0.0003568240501606207</v>
       </c>
       <c r="T26">
-        <v>0.0003225446732864317</v>
+        <v>0.0003568240501606206</v>
       </c>
     </row>
   </sheetData>
